--- a/4) Февраль/912/912 Разработка моб приложений_февраль.xlsx
+++ b/4) Февраль/912/912 Разработка моб приложений_февраль.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyao\OneDrive\Рабочий стол\Журналы\4) Февраль\912\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5967587-FBFA-460D-8AE1-A8C4E4E54368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F519603-D7E3-42A6-AA3B-3D3115A354D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="4185" windowWidth="23040" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="17685" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="46">
   <si>
     <t>ФИО</t>
   </si>
@@ -142,6 +142,27 @@
   </si>
   <si>
     <t xml:space="preserve"> .</t>
+  </si>
+  <si>
+    <t>Лекция 3.2</t>
+  </si>
+  <si>
+    <t>Лекция 3.3</t>
+  </si>
+  <si>
+    <t>Лекция 3.4</t>
+  </si>
+  <si>
+    <t>Практика 2.11</t>
+  </si>
+  <si>
+    <t>Практика 2.12</t>
+  </si>
+  <si>
+    <t>Практика 2.13</t>
+  </si>
+  <si>
+    <t>Практика 3.14</t>
   </si>
 </sst>
 </file>
@@ -242,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -254,8 +275,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -538,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,10 +570,10 @@
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" customWidth="1"/>
     <col min="14" max="14" width="14.140625" customWidth="1"/>
@@ -562,8 +581,8 @@
     <col min="16" max="16" width="15" customWidth="1"/>
     <col min="17" max="17" width="13.7109375" customWidth="1"/>
     <col min="18" max="18" width="13.28515625" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" customWidth="1"/>
     <col min="21" max="21" width="13.5703125" customWidth="1"/>
     <col min="22" max="22" width="14.5703125" customWidth="1"/>
     <col min="23" max="23" width="15.140625" customWidth="1"/>
@@ -574,10 +593,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="1">
         <v>45689</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="1">
         <v>45689</v>
       </c>
       <c r="D1" s="1">
@@ -648,12 +667,9 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="5"/>
       <c r="F2" t="s">
         <v>36</v>
       </c>
@@ -692,27 +708,25 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
         <v>36</v>
       </c>
       <c r="K3" t="s">
@@ -738,8 +752,6 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
       <c r="D4" t="s">
         <v>35</v>
       </c>
@@ -784,12 +796,9 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5">
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="5"/>
       <c r="F5" t="s">
         <v>36</v>
       </c>
@@ -828,10 +837,6 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
       <c r="F6" t="s">
         <v>36</v>
       </c>
@@ -870,10 +875,6 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
       <c r="F7" t="s">
         <v>35</v>
       </c>
@@ -912,12 +913,9 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5">
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" s="5"/>
       <c r="F8" t="s">
         <v>36</v>
       </c>
@@ -956,12 +954,9 @@
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5">
+      <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9" s="5"/>
       <c r="F9" t="s">
         <v>35</v>
       </c>
@@ -1000,27 +995,25 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s">
         <v>36</v>
       </c>
       <c r="K10" t="s">
@@ -1046,25 +1039,22 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5">
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="5" t="s">
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" t="s">
         <v>36</v>
       </c>
       <c r="K11" t="s">
@@ -1090,25 +1080,22 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12">
         <v>3</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s">
         <v>35</v>
       </c>
       <c r="K12" t="s">
@@ -1134,25 +1121,22 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5">
+      <c r="D13">
         <v>5</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13">
         <v>5</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="5" t="s">
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" t="s">
         <v>36</v>
       </c>
       <c r="K13" t="s">
@@ -1178,25 +1162,22 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5">
+      <c r="D14">
         <v>5</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="5">
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14">
         <v>5</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="5" t="s">
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" t="s">
         <v>36</v>
       </c>
       <c r="K14" t="s">
@@ -1222,27 +1203,25 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="5" t="s">
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" t="s">
         <v>36</v>
       </c>
       <c r="K15" t="s">
@@ -1268,25 +1247,22 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5">
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16">
         <v>3</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="5" t="s">
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" t="s">
         <v>36</v>
       </c>
       <c r="K16" t="s">
@@ -1312,25 +1288,22 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5">
+      <c r="D17">
         <v>5</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="5">
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17">
         <v>5</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" t="s">
         <v>36</v>
       </c>
       <c r="K17" t="s">
@@ -1356,25 +1329,22 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5">
+      <c r="D18">
         <v>4</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="5">
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18">
         <v>5</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="5" t="s">
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" t="s">
         <v>36</v>
       </c>
       <c r="K18" t="s">
@@ -1400,25 +1370,22 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5">
+      <c r="D19">
         <v>4</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="5">
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19">
         <v>3</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="5" t="s">
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" t="s">
         <v>35</v>
       </c>
       <c r="K19" t="s">
@@ -1444,23 +1411,19 @@
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="5" t="s">
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" t="s">
         <v>35</v>
       </c>
       <c r="K20" t="s">
@@ -1486,27 +1449,25 @@
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" s="5" t="s">
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" t="s">
         <v>36</v>
       </c>
       <c r="K21" t="s">
@@ -1532,27 +1493,25 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5">
+      <c r="D22">
         <v>5</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="5">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22">
         <v>5</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" s="5" t="s">
+      <c r="I22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" t="s">
         <v>36</v>
       </c>
       <c r="K22" t="s">
@@ -1578,25 +1537,22 @@
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5">
+      <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="5">
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23">
         <v>3</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" s="5" t="s">
+      <c r="I23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" t="s">
         <v>36</v>
       </c>
       <c r="K23" t="s">
@@ -1622,27 +1578,25 @@
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="5" t="s">
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" t="s">
         <v>35</v>
       </c>
       <c r="K24" t="s">
@@ -1668,23 +1622,19 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" s="5" t="s">
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" t="s">
         <v>35</v>
       </c>
       <c r="K25" t="s">
@@ -1710,27 +1660,25 @@
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="5">
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26">
         <v>3</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" s="5" t="s">
+      <c r="I26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" t="s">
         <v>36</v>
       </c>
       <c r="K26" t="s">
@@ -1756,23 +1704,19 @@
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="5" t="s">
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" t="s">
         <v>36</v>
       </c>
       <c r="K27" t="s">
@@ -1798,23 +1742,19 @@
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="5">
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28">
         <v>3</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="5" t="s">
+      <c r="I28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" t="s">
         <v>36</v>
       </c>
       <c r="K28" t="s">
@@ -1840,23 +1780,19 @@
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5">
+      <c r="D29">
         <v>5</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="5">
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29">
         <v>5</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J29" s="5" t="s">
+      <c r="I29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" t="s">
         <v>36</v>
       </c>
       <c r="K29" t="s">
@@ -1923,10 +1859,85 @@
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" t="s">
+        <v>44</v>
+      </c>
+      <c r="M31" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" t="s">
+        <v>40</v>
+      </c>
+      <c r="O31" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>40</v>
+      </c>
+      <c r="R31" t="s">
+        <v>41</v>
+      </c>
+      <c r="S31" t="s">
+        <v>44</v>
+      </c>
+      <c r="T31" t="s">
+        <v>44</v>
+      </c>
+      <c r="U31" t="s">
+        <v>45</v>
+      </c>
+      <c r="V31" t="s">
+        <v>41</v>
+      </c>
+      <c r="W31" t="s">
+        <v>41</v>
+      </c>
+      <c r="X31" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
